--- a/PatronSimulacion.xlsx
+++ b/PatronSimulacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb8e8ff2fa5e13b8/Documentos/bryan/Inteligencia Artificial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{035A01DB-E7DD-44CE-A0A3-933A424AB93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74938F37-98F2-416F-8C0D-9CC532FD2D83}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{156ED482-F017-47BA-9705-D763FE7D171A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A84E15D-25E3-4189-A09B-B72C9AD8ABE7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DCDC8B4C-4913-430C-A4CE-4853B7DC2614}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>X1</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>YD1</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>YD2</t>
   </si>
 </sst>
 </file>
@@ -69,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,15 +392,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9422073C-1F8F-4E0E-8FF6-0A04B529C644}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,21 +408,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PatronSimulacion.xlsx
+++ b/PatronSimulacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb8e8ff2fa5e13b8/Documentos/bryan/Inteligencia Artificial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{156ED482-F017-47BA-9705-D763FE7D171A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A84E15D-25E3-4189-A09B-B72C9AD8ABE7}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{156ED482-F017-47BA-9705-D763FE7D171A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2158C374-27E2-4520-8540-4842CB4AAC94}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DCDC8B4C-4913-430C-A4CE-4853B7DC2614}"/>
+    <workbookView xWindow="8180" yWindow="2270" windowWidth="6830" windowHeight="7360" xr2:uid="{DCDC8B4C-4913-430C-A4CE-4853B7DC2614}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,7 +394,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -418,20 +417,20 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>-1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>-1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2">
         <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>
